--- a/medicine/Psychotrope/Tea_Heritage/Tea_Heritage.xlsx
+++ b/medicine/Psychotrope/Tea_Heritage/Tea_Heritage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Tea Heritage est une société française fondée en 2013 qui propose des sachets de thé cousus à la main, des recettes de thés et des infusions biologiques. L'entreprise possède un site de production et ses bureaux à Lyon.
@@ -512,10 +524,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tea Heritage est fondée en 2013 à Lyon par Élodie Fagot[2]. L'entreprise commercialise alors des sachets de thés aux formes variés sur la plateforme Etsy.[réf. nécessaire] En 2016, pour poursuivre le développement de l'entreprise, Tea Heritage lance une campagne de financement participatif sur Ulule[3],[4].
-Outre le site internet, les produits de l'entreprise sont commercialisés dans plus de 300 points de vente dans le monde[5] et à l'occasion de boutiques éphémères[6]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tea Heritage est fondée en 2013 à Lyon par Élodie Fagot. L'entreprise commercialise alors des sachets de thés aux formes variés sur la plateforme Etsy.[réf. nécessaire] En 2016, pour poursuivre le développement de l'entreprise, Tea Heritage lance une campagne de financement participatif sur Ulule,.
+Outre le site internet, les produits de l'entreprise sont commercialisés dans plus de 300 points de vente dans le monde et à l'occasion de boutiques éphémères. 
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les produits sont biodégradables et cousus à la main[7][source insuffisante]. Les recettes de thés et tisanes sont certifiées par le label Ethical Tea Partnership (en)[8].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les produits sont biodégradables et cousus à la main[source insuffisante]. Les recettes de thés et tisanes sont certifiées par le label Ethical Tea Partnership (en).
 Depuis 2022, Tea Heritage a reçu le label agriculture biologique.[réf. nécessaire]
 </t>
         </is>
